--- a/study_notes.xlsx
+++ b/study_notes.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10614"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3858B3EB-D2F8-F642-960E-CFB912C0723B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D37C0AD-84D3-404C-AC2F-B4BFC8A7B018}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10220" yWindow="2120" windowWidth="21160" windowHeight="18120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="78">
   <si>
     <t>Done</t>
   </si>
@@ -647,8 +647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:D135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -753,77 +753,98 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C18" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C19" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C20" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C21" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C22" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C23" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C24" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>31</v>
       </c>

--- a/study_notes.xlsx
+++ b/study_notes.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10713"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D37C0AD-84D3-404C-AC2F-B4BFC8A7B018}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BDE746B-2499-504E-8A10-7CEE8FD04564}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10220" yWindow="2120" windowWidth="21160" windowHeight="18120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10220" yWindow="2120" windowWidth="21160" windowHeight="18120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Frontend Dev" sheetId="1" r:id="rId1"/>
     <sheet name="Backend Dev" sheetId="3" r:id="rId2"/>
+    <sheet name="UX Design" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
   <si>
     <t>Done</t>
   </si>
@@ -258,6 +259,48 @@
   </si>
   <si>
     <t>(12) Node.js: Deploying Applications</t>
+  </si>
+  <si>
+    <t>1. Become a User Experience Designer</t>
+  </si>
+  <si>
+    <t>(1) Planning a Career in User Experience</t>
+  </si>
+  <si>
+    <t>(2) UX Design: 1 Overview</t>
+  </si>
+  <si>
+    <t>(3) UX Design: 2 Analyzing User Data</t>
+  </si>
+  <si>
+    <t>(4) UX Design: 3 Creating Personas</t>
+  </si>
+  <si>
+    <t>(5) UX Foundations: Prototyping</t>
+  </si>
+  <si>
+    <t>(6) UX Foundations: Multidevice Design</t>
+  </si>
+  <si>
+    <t>(7) UX Design: 4 Ideation</t>
+  </si>
+  <si>
+    <t>(8) UX Design: 5 Creating Scenarios and Storyboards</t>
+  </si>
+  <si>
+    <t>(9) UX Design: 6 Paper Prototyping</t>
+  </si>
+  <si>
+    <t>(10) Sketch for UX Design</t>
+  </si>
+  <si>
+    <t>(11) Photoshop for UX Design</t>
+  </si>
+  <si>
+    <t>(12) Illustrator for UX Design</t>
+  </si>
+  <si>
+    <t>(13) UX Design: 7 Implementation Planning</t>
   </si>
 </sst>
 </file>
@@ -647,8 +690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:D135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -810,14 +853,17 @@
       <c r="B24" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>1</v>
+      <c r="C24" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>25</v>
       </c>
+      <c r="C25" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
@@ -828,93 +874,114 @@
       <c r="B28" t="s">
         <v>27</v>
       </c>
+      <c r="C28" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>28</v>
       </c>
+      <c r="C29" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>29</v>
       </c>
+      <c r="C30" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>30</v>
       </c>
+      <c r="C31" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C32" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C33" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C34" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>55</v>
       </c>
@@ -1120,4 +1187,109 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43D73830-ED23-FD44-9E10-A97EF8286A12}">
+  <dimension ref="A2:C15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="143" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="33" customWidth="1"/>
+    <col min="2" max="2" width="41.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/study_notes.xlsx
+++ b/study_notes.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10713"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BDE746B-2499-504E-8A10-7CEE8FD04564}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34DD76A5-58A9-CA41-AD9B-48C0CE914599}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10220" yWindow="2120" windowWidth="21160" windowHeight="18120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10220" yWindow="2120" windowWidth="21160" windowHeight="18120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Frontend Dev" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
   <si>
     <t>Done</t>
   </si>
@@ -322,7 +322,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -347,6 +347,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -360,7 +366,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -374,6 +380,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -690,8 +697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:D135"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -796,12 +803,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>18</v>
       </c>
@@ -809,23 +819,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C19" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C20" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>21</v>
       </c>
@@ -833,7 +843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>22</v>
       </c>
@@ -841,7 +851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>23</v>
       </c>
@@ -849,7 +859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>24</v>
       </c>
@@ -857,7 +867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>25</v>
       </c>
@@ -865,12 +875,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>27</v>
       </c>
@@ -878,7 +888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>28</v>
       </c>
@@ -886,7 +896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>29</v>
       </c>
@@ -894,7 +904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>30</v>
       </c>
@@ -902,7 +912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>31</v>
       </c>
@@ -922,8 +932,8 @@
       <c r="B34" t="s">
         <v>33</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>0</v>
+      <c r="C34" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -1193,8 +1203,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43D73830-ED23-FD44-9E10-A97EF8286A12}">
   <dimension ref="A2:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="143" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView zoomScale="143" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1213,8 +1223,8 @@
       <c r="B3" t="s">
         <v>79</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>1</v>
+      <c r="C3" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1229,22 +1239,19 @@
       <c r="B5" t="s">
         <v>81</v>
       </c>
+      <c r="C5" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>0</v>
-      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>83</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>0</v>
-      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
@@ -1259,9 +1266,6 @@
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>86</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">

--- a/study_notes.xlsx
+++ b/study_notes.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10810"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34DD76A5-58A9-CA41-AD9B-48C0CE914599}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91015056-09AC-0846-AC17-B2B96C789CFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10220" yWindow="2120" windowWidth="21160" windowHeight="18120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="100">
   <si>
     <t>Done</t>
   </si>
@@ -301,6 +301,30 @@
   </si>
   <si>
     <t>(13) UX Design: 7 Implementation Planning</t>
+  </si>
+  <si>
+    <t>8. Bootstrap</t>
+  </si>
+  <si>
+    <t>(1) Bootstrap 4 Essential Training</t>
+  </si>
+  <si>
+    <t>(2) Bootstrap 4 Layouts: Responsive Single-Page Design</t>
+  </si>
+  <si>
+    <t>(3) Bootstrap 4 with Sass</t>
+  </si>
+  <si>
+    <t>(4) Bootstrap 3 Essential Training</t>
+  </si>
+  <si>
+    <t>Outdated</t>
+  </si>
+  <si>
+    <t>(5) Bootstrap 4 Migration</t>
+  </si>
+  <si>
+    <t>(6) Bootstrap 3: Advanced Web Development</t>
   </si>
 </sst>
 </file>
@@ -322,7 +346,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -353,6 +377,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -366,7 +396,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -381,6 +411,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -697,8 +730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:D135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -908,8 +941,8 @@
       <c r="B31" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>1</v>
+      <c r="C31" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -980,6 +1013,9 @@
       <c r="B45" t="s">
         <v>52</v>
       </c>
+      <c r="C45" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
@@ -1066,44 +1102,88 @@
         <v>69</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
         <v>77</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B75" t="s">
+        <v>93</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B76" t="s">
+        <v>94</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B77" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B78" t="s">
+        <v>96</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B79" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B80" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.2">
@@ -1120,7 +1200,7 @@
   <dimension ref="A2:D135"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
